--- a/data/n2v/tables/model-1200-1325-20230828-50.xlsx
+++ b/data/n2v/tables/model-1200-1325-20230828-50.xlsx
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
